--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value242.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value242.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1525690010807503</v>
+        <v>1.164600729942322</v>
       </c>
       <c r="B1">
-        <v>0.1661242307116597</v>
+        <v>2.141740322113037</v>
       </c>
       <c r="C1">
-        <v>0.1948689311404055</v>
+        <v>3.347212791442871</v>
       </c>
       <c r="D1">
-        <v>0.3319463555734313</v>
+        <v>3.644415378570557</v>
       </c>
       <c r="E1">
-        <v>2.026615257240025</v>
+        <v>1.178421974182129</v>
       </c>
     </row>
   </sheetData>
